--- a/dataset_2022/benchmark2022_40.xlsx
+++ b/dataset_2022/benchmark2022_40.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\4-GPT4_Vitas\dataset_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IoT\4-GPT4_Vitas\GPT4_vitas\dataset_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507CD2-68C6-4F5A-AC6E-3A7A51AB4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E54C69-46DD-4A82-ADF5-7184DCFA52BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="720" windowWidth="20910" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="2960" windowWidth="20910" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B31" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
